--- a/target/Styletribute.xlsx
+++ b/target/Styletribute.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>New Arrivals</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>MEN</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -359,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,7 +367,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,9 +376,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
